--- a/StorageDLHI.App/StorageDLHI.App/TemplateExport/po_temp.xlsx
+++ b/StorageDLHI.App/StorageDLHI.App/TemplateExport/po_temp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUAN DAT\Desktop\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DLHI_Install_v3\TemplateExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FD1331-CF88-4047-A96A-F171B16EAF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2EB74D-13C4-45DB-9BF1-89EB8C99328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="24" windowWidth="23028" windowHeight="12336" xr2:uid="{8E9CB5B9-99AB-4A9C-9DA1-DF13BDBF5D32}"/>
   </bookViews>
@@ -996,7 +996,7 @@
     <definedName name="PPP">5</definedName>
     <definedName name="preparation" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="PresUnit">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'DV-UPC-PC-8'!$A$1:$Q$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'DV-UPC-PC-8'!$A$1:$R$16</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'DV-UPC-PC-8'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles">#REF!</definedName>
@@ -1688,7 +1688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Project Name
 (공 사 명)</t>
@@ -1910,6 +1910,9 @@
   </si>
   <si>
     <t>&lt;&lt;ROWS_STAR&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2267,17 +2270,161 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2291,15 +2438,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2308,57 +2449,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2378,95 +2468,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2494,13 +2512,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>301924</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>2845303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>3206850</xdr:rowOff>
@@ -2590,13 +2608,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>2857500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>3228975</xdr:rowOff>
@@ -2644,13 +2662,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>639536</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>2843892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>291733</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>3205439</xdr:rowOff>
@@ -2729,13 +2747,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>632573</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>2847975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>632573</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>3219450</xdr:rowOff>
@@ -2783,13 +2801,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>324970</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1703295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>694764</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>3070413</xdr:rowOff>
@@ -3352,532 +3370,553 @@
   <sheetPr codeName="Sheet35">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F11"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="2" customWidth="1"/>
-    <col min="4" max="6" width="13.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="15.44140625" style="2" customWidth="1"/>
-    <col min="14" max="15" width="18.5546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" style="25" customWidth="1"/>
-    <col min="18" max="16384" width="9.88671875" style="2"/>
+    <col min="2" max="3" width="18.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="13.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="2" customWidth="1"/>
+    <col min="13" max="14" width="15.44140625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="18.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" style="25" customWidth="1"/>
+    <col min="19" max="16384" width="9.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:18" ht="40.5" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="1" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:18" ht="40.5" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="26">
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="60">
         <v>0</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="N2" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="92" t="s">
+      <c r="O2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="26"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="60"/>
     </row>
-    <row r="3" spans="1:17" ht="22.65" customHeight="1">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:18" ht="22.65" customHeight="1">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="26"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="22.65" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="37" t="s">
+    <row r="4" spans="1:18" ht="22.65" customHeight="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="26"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="60"/>
     </row>
-    <row r="5" spans="1:17" ht="66" customHeight="1">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:18" ht="66" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="90"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="M5" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="57"/>
+      <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="P5" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
     </row>
-    <row r="6" spans="1:17" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:18" ht="18.600000000000001" customHeight="1">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="E6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="I6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="J6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="K6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="L6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="64" t="s">
+      <c r="M6" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="N6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="O6" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="64" t="s">
+      <c r="P6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="70" t="s">
+      <c r="Q6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="34"/>
+      <c r="R6" s="31"/>
     </row>
-    <row r="7" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="1" t="s">
+    <row r="7" spans="1:18" ht="21.6" customHeight="1">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="36"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="33"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A8" s="66" t="s">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="68"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="24.9" customHeight="1">
+    <row r="10" spans="1:18" ht="24.9" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17">
-        <f>SUBTOTAL(109,N8:N9)</f>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17">
+        <f>SUBTOTAL(109,O8:O9)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="68"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="1:17" ht="24.9" customHeight="1">
+    <row r="11" spans="1:18" ht="24.9" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="74" t="e">
+      <c r="C11" s="20"/>
+      <c r="D11" s="36" t="e">
         <f>"Final Price Requested (Included "&amp;#REF!&amp;"% VAT)"</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="3"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="21" t="e">
-        <f>IF(#REF!="VN Cost",IF(#REF!=8,N10*1.08,IF(#REF!=10,N10*1.1,"Check")),N10)</f>
+      <c r="N11" s="3"/>
+      <c r="O11" s="21" t="e">
+        <f>IF(#REF!="VN Cost",IF(#REF!=8,O10*1.08,IF(#REF!=10,O10*1.1,"Check")),O10)</f>
         <v>#REF!</v>
       </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="68"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="28"/>
     </row>
-    <row r="12" spans="1:17" ht="27" customHeight="1">
-      <c r="A12" s="76" t="s">
+    <row r="12" spans="1:18" ht="27" customHeight="1">
+      <c r="A12" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="82" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="83"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
     </row>
-    <row r="13" spans="1:17" ht="27" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="85"/>
+    <row r="13" spans="1:18" ht="27" customHeight="1">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="47"/>
     </row>
-    <row r="14" spans="1:17" ht="27" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="87" t="str">
-        <f>M2</f>
+    <row r="14" spans="1:18" ht="27" customHeight="1">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="49" t="str">
+        <f>N2</f>
         <v>&lt;&lt;DATE_EXPORT&gt;&gt;</v>
       </c>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="89"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="51"/>
     </row>
-    <row r="15" spans="1:17" ht="27" customHeight="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="88" t="s">
+    <row r="15" spans="1:18" ht="27" customHeight="1">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="89"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:17" ht="255" customHeight="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="91"/>
+    <row r="16" spans="1:18" ht="255" customHeight="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="53"/>
     </row>
-    <row r="17" spans="1:17" s="24" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
+    <row r="17" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
     </row>
-    <row r="18" spans="1:17" s="24" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
+    <row r="18" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="F17:Q18"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:J16"/>
-    <mergeCell ref="K12:Q13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="K15:Q16"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="M2:M4"/>
+  <mergeCells count="48">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:K2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="G17:R18"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A12:K16"/>
+    <mergeCell ref="L12:R13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="L15:R16"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
